--- a/conf.xlsx
+++ b/conf.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20375"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20371"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A4A9C9F-8C4C-4CAF-8D83-F02744EFFC3B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83088110-AF4F-4774-A64A-379F41F85661}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
   <si>
     <t>内容</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -38,11 +38,57 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>C:\Users\lihongyu\PycharmProjects\info2\test.docx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C:\Users\lihongyu\PycharmProjects\info2\target.docx</t>
+    <t>data_excel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D:\PycharmProjects\info2\test.docx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D:\PycharmProjects\info2\target.docx</t>
+  </si>
+  <si>
+    <t>D:\PycharmProjects\info2\test.xlsm</t>
+  </si>
+  <si>
+    <t>data_loc_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>label_loc_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>起始行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>起始列</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结尾行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结尾列</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>替换要素</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>loc_num</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -50,7 +96,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -64,6 +110,18 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -86,9 +144,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -371,44 +432,196 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15" style="1" customWidth="1"/>
     <col min="2" max="2" width="59.125" style="1" customWidth="1"/>
+    <col min="3" max="6" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+      <c r="C1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+    </row>
+    <row r="3" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+      <c r="B4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+    </row>
+    <row r="12" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+    </row>
+    <row r="13" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+    </row>
+    <row r="14" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+    </row>
+    <row r="15" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="2">
+        <v>1</v>
+      </c>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+    </row>
+    <row r="16" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="2">
+        <v>2</v>
+      </c>
+      <c r="D16" s="2">
         <v>3</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>5</v>
+      <c r="E16" s="2">
+        <v>179</v>
+      </c>
+      <c r="F16" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="2">
+        <v>2</v>
+      </c>
+      <c r="D17" s="2">
+        <v>1</v>
+      </c>
+      <c r="E17" s="2">
+        <v>179</v>
+      </c>
+      <c r="F17" s="1">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/conf.xlsx
+++ b/conf.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20371"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20375"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83088110-AF4F-4774-A64A-379F41F85661}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C641E34-F6DF-4397-86F5-7E061D00E451}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="33">
   <si>
     <t>内容</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -34,22 +34,8 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>doc_target</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>data_excel</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>D:\PycharmProjects\info2\test.docx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>D:\PycharmProjects\info2\target.docx</t>
-  </si>
-  <si>
-    <t>D:\PycharmProjects\info2\test.xlsm</t>
   </si>
   <si>
     <t>data_loc_1</t>
@@ -91,12 +77,92 @@
     <t>loc_num</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>1_colorname</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蓝色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_num</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3_chosen_t</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C:\Users\lihongyu\PycharmProjects\info2\test.docx</t>
+  </si>
+  <si>
+    <t>C:\Users\lihongyu\PycharmProjects\info2\test.xlsm</t>
+  </si>
+  <si>
+    <t>6_labels</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P;C;D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7_enum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8_trigger_text</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{Trigger}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10_single_path</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C:\Users\lihongyu\PycharmProjects\info2\target.docx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12_batch_dir</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C:\Users\lihongyu\Desktop\testDir</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13_batch_dir</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目建设</t>
+  </si>
+  <si>
+    <t>偿还债务</t>
+  </si>
+  <si>
+    <t>word_visible</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>excel_visible</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -123,6 +189,20 @@
       <name val="等线"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF4472C4"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -144,13 +224,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -432,10 +519,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -453,16 +540,16 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15" x14ac:dyDescent="0.2">
@@ -470,7 +557,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -481,7 +568,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -489,18 +576,22 @@
     </row>
     <row r="4" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>7</v>
+        <v>31</v>
+      </c>
+      <c r="B4" s="2">
+        <v>0</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
     </row>
     <row r="5" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
+      <c r="A5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="2">
+        <v>0</v>
+      </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -512,26 +603,57 @@
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
     </row>
-    <row r="7" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
+    <row r="7" spans="1:6" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="2">
+        <v>1</v>
+      </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
     </row>
     <row r="8" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
+      <c r="A8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="2">
+        <v>2</v>
+      </c>
+      <c r="D8" s="2">
+        <v>3</v>
+      </c>
+      <c r="E8" s="2">
+        <v>179</v>
+      </c>
+      <c r="F8" s="1">
+        <v>3</v>
+      </c>
     </row>
     <row r="9" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
+      <c r="A9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="2">
+        <v>2</v>
+      </c>
+      <c r="D9" s="2">
+        <v>1</v>
+      </c>
+      <c r="E9" s="2">
+        <v>179</v>
+      </c>
+      <c r="F9" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A10" s="2"/>
@@ -541,82 +663,133 @@
       <c r="E10" s="2"/>
     </row>
     <row r="11" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
+      <c r="A11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="2">
+        <v>4</v>
+      </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
     </row>
     <row r="12" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
+      <c r="A12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
     </row>
-    <row r="13" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
+    <row r="13" spans="1:6" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="2">
+        <v>2</v>
+      </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
-    </row>
-    <row r="14" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
+      <c r="F13" s="2"/>
+    </row>
+    <row r="14" spans="1:6" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
-    </row>
-    <row r="15" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="F14" s="2"/>
+    </row>
+    <row r="15" spans="1:6" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" s="2">
-        <v>1</v>
+        <v>20</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>21</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
-    </row>
-    <row r="16" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="F15" s="2"/>
+    </row>
+    <row r="16" spans="1:6" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C16" s="2">
-        <v>2</v>
-      </c>
-      <c r="D16" s="2">
-        <v>3</v>
-      </c>
-      <c r="E16" s="2">
-        <v>179</v>
-      </c>
-      <c r="F16" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+    </row>
+    <row r="17" spans="1:6" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C17" s="2">
-        <v>2</v>
-      </c>
-      <c r="D17" s="2">
+        <v>25</v>
+      </c>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+    </row>
+    <row r="18" spans="1:6" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+    </row>
+    <row r="19" spans="1:6" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+    </row>
+    <row r="20" spans="1:6" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+    </row>
+    <row r="21" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A21" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21" s="1">
         <v>1</v>
       </c>
-      <c r="E17" s="2">
-        <v>179</v>
-      </c>
-      <c r="F17" s="1">
-        <v>1</v>
+    </row>
+    <row r="22" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A22" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22" s="1">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
